--- a/biology/Zoologie/Anisolepis_undulatus/Anisolepis_undulatus.xlsx
+++ b/biology/Zoologie/Anisolepis_undulatus/Anisolepis_undulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anisolepis undulatus est une espèce de sauriens de la famille des Leiosauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anisolepis undulatus est une espèce de sauriens de la famille des Leiosauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Brésil dans l'État du Rio Grande do Sul ;
 en Uruguay dans le département de Paysandú ;
 en Argentine dans la province de Buenos Aires.</t>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette espèce, undulatus, fait référence au motif en zigzag présent sur son dos[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce, undulatus, fait référence au motif en zigzag présent sur son dos.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la) Wiegmann, 1834 : Herpetologia mexicana, seu Descriptio amphibiorum Novae Hispaniae quae itineribus comitis De Sack, Ferdinandi Deppe et Chr. Guil. Schiede in Museum zoologicum Berolinense pervenerunt. Pars prima saurorum species amplectens, adjecto systematis saurorum prodromo, additisque multis in hunc amphibiorum ordinem observationibus. Lüderitz, Berlin, p. 1-54 (texte intégral).</t>
         </is>
